--- a/Materials/BANGS.xlsx
+++ b/Materials/BANGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAEA5F-A504-004B-ACCF-CC63DDBF73B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875B903-A57B-284D-9536-ED5C83121FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
+    <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE0C6A-4BE2-1948-BCE8-C3527ECCDD8B}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:C51"/>
     </sheetView>
   </sheetViews>

--- a/Materials/BANGS.xlsx
+++ b/Materials/BANGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875B903-A57B-284D-9536-ED5C83121FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6EFCA0-7254-9C44-9320-9BF526BD7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
@@ -113,60 +113,6 @@
     <t>Interactions with other players and/or characters in [X] felt toxic to me.</t>
   </si>
   <si>
-    <t>bang_01</t>
-  </si>
-  <si>
-    <t>bang_02</t>
-  </si>
-  <si>
-    <t>bang_03</t>
-  </si>
-  <si>
-    <t>bang_04</t>
-  </si>
-  <si>
-    <t>bang_05</t>
-  </si>
-  <si>
-    <t>bang_06</t>
-  </si>
-  <si>
-    <t>bang_07</t>
-  </si>
-  <si>
-    <t>bang_08</t>
-  </si>
-  <si>
-    <t>bang_09</t>
-  </si>
-  <si>
-    <t>bang_10</t>
-  </si>
-  <si>
-    <t>bang_11</t>
-  </si>
-  <si>
-    <t>bang_12</t>
-  </si>
-  <si>
-    <t>bang_13</t>
-  </si>
-  <si>
-    <t>bang_14</t>
-  </si>
-  <si>
-    <t>bang_15</t>
-  </si>
-  <si>
-    <t>bang_16</t>
-  </si>
-  <si>
-    <t>bang_17</t>
-  </si>
-  <si>
-    <t>bang_18</t>
-  </si>
-  <si>
     <t>I could make choices regarding how to play the game.</t>
   </si>
   <si>
@@ -778,28 +724,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve">Stem Text: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">gaming in general throughout the past </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
@@ -814,13 +764,125 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
-The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bang_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stem Text: </t>
+      <t xml:space="preserve">.
+Throughout my experiences playing games in the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [X] is a placeholder with several validated variants to refer to different experiences (one session, one game over time, or all gaming over time). Please see the separate sheets in this file for each variant.</t>
+    </r>
+  </si>
+  <si>
+    <t>bangs_01</t>
+  </si>
+  <si>
+    <t>bangs_02</t>
+  </si>
+  <si>
+    <t>bangs_03</t>
+  </si>
+  <si>
+    <t>bangs_04</t>
+  </si>
+  <si>
+    <t>bangs_05</t>
+  </si>
+  <si>
+    <t>bangs_06</t>
+  </si>
+  <si>
+    <t>bangs_07</t>
+  </si>
+  <si>
+    <t>bangs_08</t>
+  </si>
+  <si>
+    <t>bangs_09</t>
+  </si>
+  <si>
+    <t>bangs_10</t>
+  </si>
+  <si>
+    <t>bangs_11</t>
+  </si>
+  <si>
+    <t>bangs_12</t>
+  </si>
+  <si>
+    <t>bangs_13</t>
+  </si>
+  <si>
+    <t>bangs_14</t>
+  </si>
+  <si>
+    <t>bangs_15</t>
+  </si>
+  <si>
+    <t>bangs_16</t>
+  </si>
+  <si>
+    <t>bangs_17</t>
+  </si>
+  <si>
+    <t>bangs_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoring Instructions: We recommend taking the mean of each subscale (see below) and using this in models as an unstandardized score. If you prefer to use standardized scores, we recommend where possible using a latent factor model - see further details about this procedure in the BANGS user guide (https://nickballou.com/docs/bangs/userguide/). 
+Autonomy Satisfaction: bangs_01, bangs_02, bangs_03
+Autonomy Frustration: bangs_04, bangs_05, bangs_06
+Competence Satisfaction: bangs_07, bangs_08, bangs_09
+Competence Frustration: bangs_10, bangs_11, bangs_12
+Relatedness Satisfaction: bangs_13, bangs_14, bangs_15
+Relatedness Frustration: bangs_16, bangs_17, bangs_18
+</t>
+  </si>
+  <si>
+    <t>Scoring with combined subscales: Depending on your goal, it may be appropriate to calculate the mean of all the need satisfaction items (i.e., the 9 items covering satisfaction of autonomy, competence, and relatedness; see below) and/or the mean of all need frustration items (i.e., the 9 items covering frustration of autonomy, competence, and relatedness; see below) as holistic indications of overall need satisfaction and frustration. Note, however, that this will result in the loss of information about which needs are more satisfied or frustrated.
+Need satisfaction: bangs_01, bangs_02, bangs_03, bangs_07, bangs_08, bangs_09, bangs_13, bangs_14, bangs_15
+Need frustration: bangs_04, bangs_05, bangs_06, bangs_10, bangs_11, bangs_12, bangs_16, bangs_17, bangs_18
+We do not recommend calculating a score of all 18 items together (e.g., subtracting the mean of all need frustration items from the mean of all need satisfaction items)—need satisfaction and frustration are separate constructs with different consequences, and should therefore be used and interpreted separately.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
     </r>
     <r>
       <rPr>
@@ -830,128 +892,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gaming in general throughout the past </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[time period]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Throughout my experiences playing games in the last </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[time period]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t xml:space="preserve"> [X] is a placeholder with several validated variants to refer to different experiences (one session, one game over time, or all gaming over time). Please see the separate sheets in this file for each variant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scoring Instructions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> We recommend taking the mean of each subscale (see below) and using this in models as an unstandardized score. If you prefer to use standardized scores, we recommend where possible using a latent factor model - see further details about this procedure in the BANGS user guide (https://nickballou.com/docs/bangs/userguide/). 
-Autonomy Satisfaction: bang_01, bang_02, bang_03
-Autonomy Frustration: bang_04, bang_05, bang_06
-Competence Satisfaction: bang_07, bang_08, bang_09
-Competence Frustration: bang_10, bang_11, bang_12
-Relatedness Satisfaction: bang_13, bang_14, bang_15
-Relatedness Frustration: bang_16, bang_17, bang_18
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scoring with combined subscales: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Depending on your goal, it may be appropriate to calculate the mean of all the need satisfaction items (i.e., the 9 items covering satisfaction of autonomy, competence, and relatedness; see below) and/or the mean of all need frustration items (i.e., the 9 items covering frustration of autonomy, competence, and relatedness; see below) as holistic indications of overall need satisfaction and frustration. Note, however, that this will result in the loss of information about which needs are more satisfied or frustrated.
-Need satisfaction: bang_01, bang_02, bang_03, bang_07, bang_08, bang_09, bang_13, bang_14, bang_15
-Need frustration: bang_04, bang_05, bang_06, bang_10, bang_11, bang_12, bang_16, bang_17, bang_18
-We do not recommend calculating a score of all 18 items together (e.g., subtracting the mean of all need frustration items from the mean of all need satisfaction items)—need satisfaction and frustration are separate constructs with different consequences, and should therefore be used and interpreted separately.</t>
+      <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
+The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bangs_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
     </r>
   </si>
 </sst>
@@ -1107,11 +1049,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,12 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1390,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C51"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,22 +1407,22 @@
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1489,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1498,15 +1440,15 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1514,9 +1456,9 @@
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1524,9 +1466,9 @@
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1534,11 +1476,11 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1546,9 +1488,9 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -1556,9 +1498,9 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1566,11 +1508,11 @@
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1578,9 +1520,9 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1588,9 +1530,9 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1598,11 +1540,11 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1610,9 +1552,9 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1620,9 +1562,9 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1630,11 +1572,11 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1642,9 +1584,9 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1652,9 +1594,9 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -1662,11 +1604,11 @@
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1674,9 +1616,9 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1684,9 +1626,9 @@
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1700,153 +1642,153 @@
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1881,27 +1823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1910,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1919,181 +1861,181 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,27 +2088,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2175,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2184,189 +2126,189 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2389,7 +2331,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2399,27 +2341,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2428,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2437,207 +2379,207 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="11"/>
     </row>
   </sheetData>
